--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>84.10150610525608</v>
+        <v>91.67661144857539</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6536512618548</v>
+        <v>27.2810355653794</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.06429381528146</v>
+        <v>86.57559059635415</v>
       </c>
       <c r="D3" t="n">
-        <v>30.18449106039194</v>
+        <v>25.1413763069173</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.72298547862174</v>
+        <v>86.66618813153069</v>
       </c>
       <c r="D4" t="n">
-        <v>35.30967725342224</v>
+        <v>33.07873785934315</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>94.60999679969143</v>
+        <v>85.00901034054337</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1655981354264</v>
+        <v>28.83484454328184</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.95658487198314</v>
+        <v>85.82653186715764</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2874544909422</v>
+        <v>32.22721444824237</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>81.91943833607723</v>
+        <v>82.55059866067435</v>
       </c>
       <c r="D7" t="n">
-        <v>28.75814615797112</v>
+        <v>30.34091307141781</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.31536407238022</v>
+        <v>86.29983339908338</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0812226543088</v>
+        <v>31.70646796972706</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.71120192494675</v>
+        <v>82.92513744293886</v>
       </c>
       <c r="D9" t="n">
-        <v>26.80909271016322</v>
+        <v>29.58438712133458</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>79.58101867869046</v>
+        <v>80.17648896355294</v>
       </c>
       <c r="D10" t="n">
-        <v>28.75344109194762</v>
+        <v>30.30168912790275</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>87.97368710511566</v>
+        <v>80.85780344169184</v>
       </c>
       <c r="D11" t="n">
-        <v>31.86370793652874</v>
+        <v>29.33539562666706</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.21110359651466</v>
+        <v>79.22741004216292</v>
       </c>
       <c r="D12" t="n">
-        <v>30.42862590937621</v>
+        <v>29.04995219229454</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.89191377265624</v>
+        <v>79.28735054787855</v>
       </c>
       <c r="D13" t="n">
-        <v>32.08820116992641</v>
+        <v>28.52415677765811</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>73.53059469676288</v>
+        <v>76.48588381466939</v>
       </c>
       <c r="D14" t="n">
-        <v>32.08759339730678</v>
+        <v>31.66639920100146</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.46225950299791</v>
+        <v>74.64676549114779</v>
       </c>
       <c r="D15" t="n">
-        <v>29.02188979270493</v>
+        <v>30.99586725583039</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>81.7504486520245</v>
+        <v>82.92927653338197</v>
       </c>
       <c r="D16" t="n">
-        <v>35.60220272856731</v>
+        <v>30.46394138805552</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.95384820663118</v>
+        <v>74.84229453783156</v>
       </c>
       <c r="D17" t="n">
-        <v>32.25756383792366</v>
+        <v>26.31753855305637</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.11250024430588</v>
+        <v>75.30499740254885</v>
       </c>
       <c r="D18" t="n">
-        <v>31.87574022714379</v>
+        <v>28.17593518572404</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.49172079175285</v>
+        <v>71.98800017256707</v>
       </c>
       <c r="D19" t="n">
-        <v>32.8276608589211</v>
+        <v>30.14722316809729</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.56962824798495</v>
+        <v>74.35584308088357</v>
       </c>
       <c r="D20" t="n">
-        <v>31.9417102964968</v>
+        <v>34.19716845849356</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.77800366347223</v>
+        <v>75.01971471145772</v>
       </c>
       <c r="D21" t="n">
-        <v>30.92448105436164</v>
+        <v>32.8060781111877</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.60931677224212</v>
+        <v>70.6695971194969</v>
       </c>
       <c r="D22" t="n">
-        <v>30.47075052867471</v>
+        <v>25.31608176560806</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.54531720081887</v>
+        <v>71.4613425440637</v>
       </c>
       <c r="D23" t="n">
-        <v>30.78920960730981</v>
+        <v>27.16983064262417</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.57959237722304</v>
+        <v>70.20671904134382</v>
       </c>
       <c r="D24" t="n">
-        <v>30.01885838384799</v>
+        <v>27.7231963555654</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.70888960311842</v>
+        <v>64.42529098959773</v>
       </c>
       <c r="D25" t="n">
-        <v>31.11659421299544</v>
+        <v>31.67491204742639</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.16119147037706</v>
+        <v>63.1354712798073</v>
       </c>
       <c r="D26" t="n">
-        <v>35.89311276455322</v>
+        <v>28.41762717510437</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.1693365072022</v>
+        <v>61.95865607653831</v>
       </c>
       <c r="D27" t="n">
-        <v>32.13055302181928</v>
+        <v>30.56900531593729</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.28636300920319</v>
+        <v>66.70691509273615</v>
       </c>
       <c r="D28" t="n">
-        <v>33.74727663715336</v>
+        <v>28.77909980817561</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>59.69147247500756</v>
+        <v>56.65620059585942</v>
       </c>
       <c r="D29" t="n">
-        <v>31.72984716874249</v>
+        <v>28.81119409993022</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.93863655105183</v>
+        <v>64.35113324541959</v>
       </c>
       <c r="D30" t="n">
-        <v>30.69629434277583</v>
+        <v>26.17188303416533</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.89648470634997</v>
+        <v>62.09764166250413</v>
       </c>
       <c r="D31" t="n">
-        <v>29.15998415326014</v>
+        <v>30.59349371888231</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.23197238742896</v>
+        <v>61.01235532423259</v>
       </c>
       <c r="D32" t="n">
-        <v>34.03095447231289</v>
+        <v>30.12260106496</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.70449753956166</v>
+        <v>62.69130952547321</v>
       </c>
       <c r="D33" t="n">
-        <v>27.67541862906769</v>
+        <v>30.04108602247988</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.17384772968722</v>
+        <v>61.59892660225803</v>
       </c>
       <c r="D34" t="n">
-        <v>30.62262224751058</v>
+        <v>31.10661233840269</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.87187411154909</v>
+        <v>57.6189125558907</v>
       </c>
       <c r="D35" t="n">
-        <v>29.25345761057591</v>
+        <v>28.99189437137845</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.67842315882967</v>
+        <v>61.31798028737168</v>
       </c>
       <c r="D36" t="n">
-        <v>30.31411867307432</v>
+        <v>33.18175370423965</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.67265042186435</v>
+        <v>51.95046684399669</v>
       </c>
       <c r="D37" t="n">
-        <v>31.42963361980139</v>
+        <v>30.75762470863673</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.19453994462431</v>
+        <v>50.16206673549825</v>
       </c>
       <c r="D38" t="n">
-        <v>31.48376246642422</v>
+        <v>31.4544893018337</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.74391807321472</v>
+        <v>55.14626327363965</v>
       </c>
       <c r="D39" t="n">
-        <v>29.81909649558937</v>
+        <v>30.2862494989454</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.64131283687481</v>
+        <v>50.91414232042251</v>
       </c>
       <c r="D40" t="n">
-        <v>30.36684359231485</v>
+        <v>29.64243541200105</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.36181804057212</v>
+        <v>50.84769633699808</v>
       </c>
       <c r="D41" t="n">
-        <v>30.70229510768221</v>
+        <v>31.28245794213881</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.0144785211036</v>
+        <v>46.18457049932567</v>
       </c>
       <c r="D42" t="n">
-        <v>30.98503947485861</v>
+        <v>31.78552931648488</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.33309850441945</v>
+        <v>43.3025419018668</v>
       </c>
       <c r="D43" t="n">
-        <v>31.80445998634034</v>
+        <v>30.11801695162317</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>44.72956196256024</v>
+        <v>51.3886570962871</v>
       </c>
       <c r="D44" t="n">
-        <v>31.46717145177124</v>
+        <v>32.41931764418031</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.40426024241108</v>
+        <v>46.95345271734774</v>
       </c>
       <c r="D45" t="n">
-        <v>26.74191270238934</v>
+        <v>30.12314375138302</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.0813908392975</v>
+        <v>40.95660987138923</v>
       </c>
       <c r="D46" t="n">
-        <v>29.5868435724647</v>
+        <v>29.45668670358864</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>49.94445550796013</v>
+        <v>44.07801933712407</v>
       </c>
       <c r="D47" t="n">
-        <v>28.68664167681329</v>
+        <v>28.65644887867229</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.76832504521299</v>
+        <v>51.19678764868065</v>
       </c>
       <c r="D48" t="n">
-        <v>28.79601069318954</v>
+        <v>33.80279236941466</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.09948001696468</v>
+        <v>52.07519183960251</v>
       </c>
       <c r="D49" t="n">
-        <v>29.30563971720308</v>
+        <v>31.07528349610219</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.35712915683136</v>
+        <v>42.7175314553776</v>
       </c>
       <c r="D50" t="n">
-        <v>32.67342759482609</v>
+        <v>30.12726157828843</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.36584280990144</v>
+        <v>34.57790907665583</v>
       </c>
       <c r="D51" t="n">
-        <v>29.32587080400568</v>
+        <v>31.88269723610644</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.8905294052589</v>
+        <v>33.69249269390034</v>
       </c>
       <c r="D52" t="n">
-        <v>29.51182938189582</v>
+        <v>27.69418735480741</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>35.61874120112382</v>
+        <v>40.02096308424615</v>
       </c>
       <c r="D53" t="n">
-        <v>30.16805647425389</v>
+        <v>31.0415117961025</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.6290577439711</v>
+        <v>31.42761613121606</v>
       </c>
       <c r="D54" t="n">
-        <v>35.20630308969646</v>
+        <v>28.39260179050997</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.00184930037175</v>
+        <v>33.18845012613421</v>
       </c>
       <c r="D55" t="n">
-        <v>28.67105588098395</v>
+        <v>29.17839124358805</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.81877308369213</v>
+        <v>31.78881423088291</v>
       </c>
       <c r="D56" t="n">
-        <v>33.30313943260147</v>
+        <v>27.13321973465914</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.6013478764761</v>
+        <v>33.52495138530904</v>
       </c>
       <c r="D57" t="n">
-        <v>28.71697470113961</v>
+        <v>33.01004493655941</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.08428514641769</v>
+        <v>34.94779026041059</v>
       </c>
       <c r="D58" t="n">
-        <v>30.68142226761464</v>
+        <v>34.25918017503079</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.51187291632246</v>
+        <v>31.20474946426201</v>
       </c>
       <c r="D59" t="n">
-        <v>27.40285025223288</v>
+        <v>32.23532611752653</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>24.44602431861332</v>
+        <v>31.10397105264053</v>
       </c>
       <c r="D60" t="n">
-        <v>31.23180316996721</v>
+        <v>34.65653575680578</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>36.0657157171294</v>
+        <v>28.219367762391</v>
       </c>
       <c r="D61" t="n">
-        <v>33.19282812430731</v>
+        <v>28.50809320832471</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.29885905274612</v>
+        <v>30.99280191139836</v>
       </c>
       <c r="D62" t="n">
-        <v>27.785065000292</v>
+        <v>30.95547772676381</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.58597860352744</v>
+        <v>29.07179759791529</v>
       </c>
       <c r="D63" t="n">
-        <v>26.73837942092968</v>
+        <v>27.17875621688821</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.28198978976115</v>
+        <v>32.71237071326754</v>
       </c>
       <c r="D64" t="n">
-        <v>34.22511773848225</v>
+        <v>30.28179912066794</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.94272126037427</v>
+        <v>25.70481253301326</v>
       </c>
       <c r="D65" t="n">
-        <v>34.35838049655438</v>
+        <v>30.75303514239497</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.42503573939323</v>
+        <v>25.95997668870111</v>
       </c>
       <c r="D66" t="n">
-        <v>27.68235915728227</v>
+        <v>29.76947488906772</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.61642858433244</v>
+        <v>22.04133081926849</v>
       </c>
       <c r="D67" t="n">
-        <v>33.64968255901447</v>
+        <v>29.34693620556514</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.83045777483569</v>
+        <v>22.83077301407551</v>
       </c>
       <c r="D68" t="n">
-        <v>29.98172550814198</v>
+        <v>25.97303354430549</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>18.5761053856306</v>
+        <v>19.83614713235119</v>
       </c>
       <c r="D69" t="n">
-        <v>29.61888399046324</v>
+        <v>27.62540087582578</v>
       </c>
     </row>
   </sheetData>
